--- a/data/pca/factorExposure/factorExposure_2018-04-03.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01362555670869916</v>
+        <v>0.01398578762214488</v>
       </c>
       <c r="C2">
-        <v>0.02959386186977116</v>
+        <v>-0.01197981331962483</v>
       </c>
       <c r="D2">
-        <v>-0.02636768530163324</v>
+        <v>0.03660499361147147</v>
       </c>
       <c r="E2">
-        <v>0.001565737426074549</v>
+        <v>0.01925074329598879</v>
       </c>
       <c r="F2">
-        <v>0.09371571067463205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.004528806142158356</v>
+      </c>
+      <c r="G2">
+        <v>-0.03064120986990216</v>
+      </c>
+      <c r="H2">
+        <v>-0.04456755314414159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08806095130960517</v>
+        <v>0.06481296271152778</v>
       </c>
       <c r="C3">
-        <v>0.04801594234804325</v>
+        <v>-0.0657174730796842</v>
       </c>
       <c r="D3">
-        <v>-0.01096617421061408</v>
+        <v>0.0483577556335494</v>
       </c>
       <c r="E3">
-        <v>0.04546083817206656</v>
+        <v>0.008628049515276268</v>
       </c>
       <c r="F3">
-        <v>0.3403324095206547</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.05181439485820673</v>
+      </c>
+      <c r="G3">
+        <v>-0.1378778101495164</v>
+      </c>
+      <c r="H3">
+        <v>-0.1093849948452657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04548850897950673</v>
+        <v>0.03575616119325616</v>
       </c>
       <c r="C4">
-        <v>0.01749661070856762</v>
+        <v>-0.04410642250853984</v>
       </c>
       <c r="D4">
-        <v>-0.03507122048743429</v>
+        <v>0.04980002474513349</v>
       </c>
       <c r="E4">
-        <v>-0.0350842615518033</v>
+        <v>-0.01650028274508465</v>
       </c>
       <c r="F4">
-        <v>0.06094594953072578</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.03074761810791346</v>
+      </c>
+      <c r="G4">
+        <v>-0.04233371369852938</v>
+      </c>
+      <c r="H4">
+        <v>-0.05515132904437397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03319983271239428</v>
+        <v>0.02208076866787412</v>
       </c>
       <c r="C6">
-        <v>0.01496542901756972</v>
+        <v>-0.04515555388585697</v>
       </c>
       <c r="D6">
-        <v>-0.03837224236160684</v>
+        <v>0.0447410221403623</v>
       </c>
       <c r="E6">
-        <v>-0.02419429279402429</v>
+        <v>-0.005004753206303366</v>
       </c>
       <c r="F6">
-        <v>0.01138350193120736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02817808612391034</v>
+      </c>
+      <c r="G6">
+        <v>-0.01532458179350819</v>
+      </c>
+      <c r="H6">
+        <v>-0.05979111787161858</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.03978284597590453</v>
+        <v>0.00953551618289758</v>
       </c>
       <c r="C7">
-        <v>-0.02702592344680036</v>
+        <v>-0.02462585185120946</v>
       </c>
       <c r="D7">
-        <v>-0.03198911600772977</v>
+        <v>0.02889286779627881</v>
       </c>
       <c r="E7">
-        <v>-0.01572076848862551</v>
+        <v>-0.04338177561883914</v>
       </c>
       <c r="F7">
-        <v>0.03753440862307821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.00625068162894348</v>
+      </c>
+      <c r="G7">
+        <v>-0.01858425021245137</v>
+      </c>
+      <c r="H7">
+        <v>-0.03589658800957739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01626535015898123</v>
+        <v>0.0009665404112470753</v>
       </c>
       <c r="C8">
-        <v>0.001302547938018218</v>
+        <v>-0.009608086590758558</v>
       </c>
       <c r="D8">
-        <v>-0.04360716907757226</v>
+        <v>0.007841880518676632</v>
       </c>
       <c r="E8">
-        <v>-0.02594301488360668</v>
+        <v>-0.01002695770904889</v>
       </c>
       <c r="F8">
-        <v>0.0633501007697003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.003923568380155425</v>
+      </c>
+      <c r="G8">
+        <v>-0.03814266791014419</v>
+      </c>
+      <c r="H8">
+        <v>-0.03216834950740261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03363863974159582</v>
+        <v>0.02441762525499152</v>
       </c>
       <c r="C9">
-        <v>0.01150713172018318</v>
+        <v>-0.03474518057617913</v>
       </c>
       <c r="D9">
-        <v>-0.03283809091162844</v>
+        <v>0.03654979459945242</v>
       </c>
       <c r="E9">
-        <v>-0.01369158396110133</v>
+        <v>-0.006172076094583067</v>
       </c>
       <c r="F9">
-        <v>0.07939102864813521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.00487584191882598</v>
+      </c>
+      <c r="G9">
+        <v>-0.04155170956515</v>
+      </c>
+      <c r="H9">
+        <v>-0.05292669717154151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04084483173171095</v>
+        <v>0.1347935315005086</v>
       </c>
       <c r="C10">
-        <v>0.004794555223833594</v>
+        <v>0.102899802628135</v>
       </c>
       <c r="D10">
-        <v>0.1470003781507743</v>
+        <v>-0.1019355460110833</v>
       </c>
       <c r="E10">
-        <v>0.05185400960015479</v>
+        <v>0.0009138569929124402</v>
       </c>
       <c r="F10">
-        <v>0.05998168494578707</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.04399065059765427</v>
+      </c>
+      <c r="G10">
+        <v>-0.02328697541283686</v>
+      </c>
+      <c r="H10">
+        <v>0.01021454486460157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03036716805434351</v>
+        <v>0.0158732075159365</v>
       </c>
       <c r="C11">
-        <v>0.02364089021076411</v>
+        <v>-0.04282664986399715</v>
       </c>
       <c r="D11">
-        <v>-0.0369144225771576</v>
+        <v>0.02728910378813637</v>
       </c>
       <c r="E11">
-        <v>-0.01886431035942783</v>
+        <v>0.001902619449727232</v>
       </c>
       <c r="F11">
-        <v>0.02643510835894346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.006281360530320563</v>
+      </c>
+      <c r="G11">
+        <v>-0.01830479109171668</v>
+      </c>
+      <c r="H11">
+        <v>-0.05014199164812588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04109252649144352</v>
+        <v>0.01979502826873113</v>
       </c>
       <c r="C12">
-        <v>0.02252777052647031</v>
+        <v>-0.03942059067516228</v>
       </c>
       <c r="D12">
-        <v>-0.0296076233093759</v>
+        <v>0.02933636959024809</v>
       </c>
       <c r="E12">
-        <v>-0.02758357148442957</v>
+        <v>-0.01122838499262365</v>
       </c>
       <c r="F12">
-        <v>0.0009195808153763565</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01094519506738395</v>
+      </c>
+      <c r="G12">
+        <v>-0.004846064881920044</v>
+      </c>
+      <c r="H12">
+        <v>-0.01938996498726959</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01150635512936969</v>
+        <v>0.01811020079247777</v>
       </c>
       <c r="C13">
-        <v>0.02211686820718179</v>
+        <v>-0.01003762339344008</v>
       </c>
       <c r="D13">
-        <v>-0.01082179126699427</v>
+        <v>0.03027726580820408</v>
       </c>
       <c r="E13">
-        <v>-0.01041439522352602</v>
+        <v>0.01324600967251059</v>
       </c>
       <c r="F13">
-        <v>0.07531281397296952</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.005276894253388387</v>
+      </c>
+      <c r="G13">
+        <v>-0.05438649008364079</v>
+      </c>
+      <c r="H13">
+        <v>-0.069983469093595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.02425962731331245</v>
+        <v>0.009567235972130793</v>
       </c>
       <c r="C14">
-        <v>-0.00142930337449826</v>
+        <v>-0.01507576920341889</v>
       </c>
       <c r="D14">
-        <v>-0.01874114059805557</v>
+        <v>0.01695242766625303</v>
       </c>
       <c r="E14">
-        <v>-0.0159588170270261</v>
+        <v>-0.01404759415017106</v>
       </c>
       <c r="F14">
-        <v>0.04789754364781915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.00126752069721455</v>
+      </c>
+      <c r="G14">
+        <v>-0.03703458865724482</v>
+      </c>
+      <c r="H14">
+        <v>-0.01042689030449316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03164608091631688</v>
+        <v>0.01763055714206792</v>
       </c>
       <c r="C16">
-        <v>0.02324972728065589</v>
+        <v>-0.03751079074760513</v>
       </c>
       <c r="D16">
-        <v>-0.04050922643758639</v>
+        <v>0.02290930208160675</v>
       </c>
       <c r="E16">
-        <v>-0.02092683035640476</v>
+        <v>-0.00249900423576989</v>
       </c>
       <c r="F16">
-        <v>0.02800860312087703</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.008436712947281389</v>
+      </c>
+      <c r="G16">
+        <v>-0.01802884417857824</v>
+      </c>
+      <c r="H16">
+        <v>-0.03615778953479389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03670740429466721</v>
+        <v>0.01999450111983149</v>
       </c>
       <c r="C19">
-        <v>0.01985526983616815</v>
+        <v>-0.03199179060749271</v>
       </c>
       <c r="D19">
-        <v>-0.04568468974405092</v>
+        <v>0.0334112693755901</v>
       </c>
       <c r="E19">
-        <v>-0.03568552345399596</v>
+        <v>-0.01072976342993229</v>
       </c>
       <c r="F19">
-        <v>0.0778339259170296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.008628830267782063</v>
+      </c>
+      <c r="G19">
+        <v>-0.05478292509904864</v>
+      </c>
+      <c r="H19">
+        <v>-0.05397877816932779</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003475011347594999</v>
+        <v>0.005171668234623639</v>
       </c>
       <c r="C20">
-        <v>-0.008530356445243432</v>
+        <v>-0.01236712226362303</v>
       </c>
       <c r="D20">
-        <v>-0.005402788908374653</v>
+        <v>0.02018657356631295</v>
       </c>
       <c r="E20">
-        <v>-0.01049563729481182</v>
+        <v>-0.004783820386623248</v>
       </c>
       <c r="F20">
-        <v>0.0554717878560849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.002159180377370627</v>
+      </c>
+      <c r="G20">
+        <v>-0.04732475727999956</v>
+      </c>
+      <c r="H20">
+        <v>-0.02697094526768016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02031677756329956</v>
+        <v>0.01211963143477425</v>
       </c>
       <c r="C21">
-        <v>-0.01446660451345882</v>
+        <v>-0.01173750253066311</v>
       </c>
       <c r="D21">
-        <v>-0.03436624712866185</v>
+        <v>0.02215292407947543</v>
       </c>
       <c r="E21">
-        <v>-0.003781062875038153</v>
+        <v>-0.01655812540349335</v>
       </c>
       <c r="F21">
-        <v>0.02672791872907313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.00966211769536663</v>
+      </c>
+      <c r="G21">
+        <v>-0.03769101258621046</v>
+      </c>
+      <c r="H21">
+        <v>-0.05147644198763263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02914265765568689</v>
+        <v>0.01254935545614332</v>
       </c>
       <c r="C24">
-        <v>0.02117039000146123</v>
+        <v>-0.03443558643411824</v>
       </c>
       <c r="D24">
-        <v>-0.02138404060573943</v>
+        <v>0.02746680467770378</v>
       </c>
       <c r="E24">
-        <v>-0.01810526246190729</v>
+        <v>-0.000753249768993182</v>
       </c>
       <c r="F24">
-        <v>0.03083427129547744</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.006016953244309227</v>
+      </c>
+      <c r="G24">
+        <v>-0.01232839182740337</v>
+      </c>
+      <c r="H24">
+        <v>-0.04391696961484863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03273161725278287</v>
+        <v>0.02633571436687938</v>
       </c>
       <c r="C25">
-        <v>0.01974436920448653</v>
+        <v>-0.03681853973301237</v>
       </c>
       <c r="D25">
-        <v>-0.03347755165726019</v>
+        <v>0.03245782911321125</v>
       </c>
       <c r="E25">
-        <v>-0.01564341055532491</v>
+        <v>-0.006402647005262768</v>
       </c>
       <c r="F25">
-        <v>0.03375896348373667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01411026590845697</v>
+      </c>
+      <c r="G25">
+        <v>-0.01577264614687462</v>
+      </c>
+      <c r="H25">
+        <v>-0.04407155660140703</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01461324293276886</v>
+        <v>0.009553221690833147</v>
       </c>
       <c r="C26">
-        <v>0.008315785464958795</v>
+        <v>0.005556078019809694</v>
       </c>
       <c r="D26">
-        <v>-0.02106566958876542</v>
+        <v>0.02233386878241008</v>
       </c>
       <c r="E26">
-        <v>0.005696450964215969</v>
+        <v>-0.001537742862966836</v>
       </c>
       <c r="F26">
-        <v>0.05486342508815074</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.006955789003576328</v>
+      </c>
+      <c r="G26">
+        <v>-0.0239678297275641</v>
+      </c>
+      <c r="H26">
+        <v>-0.01880431369851208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.03653509374974036</v>
+        <v>0.01328220535232035</v>
       </c>
       <c r="C27">
-        <v>0.01776599685102347</v>
+        <v>-0.01262606592515182</v>
       </c>
       <c r="D27">
-        <v>-0.002072820938842556</v>
+        <v>0.005417354171668462</v>
       </c>
       <c r="E27">
-        <v>-0.02723358853250231</v>
+        <v>-0.006655107277353575</v>
       </c>
       <c r="F27">
-        <v>0.0130097520332838</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.002521324093612302</v>
+      </c>
+      <c r="G27">
+        <v>-0.007912561943706382</v>
+      </c>
+      <c r="H27">
+        <v>0.004824029087683432</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07222334498402357</v>
+        <v>0.187332293182262</v>
       </c>
       <c r="C28">
-        <v>0.009746559386857832</v>
+        <v>0.1419469882184662</v>
       </c>
       <c r="D28">
-        <v>0.2105914038099462</v>
+        <v>-0.123865485274588</v>
       </c>
       <c r="E28">
-        <v>0.08372793514886294</v>
+        <v>-0.01181979765063221</v>
       </c>
       <c r="F28">
-        <v>0.05780552986511615</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.04050845941299037</v>
+      </c>
+      <c r="G28">
+        <v>-0.01142442470228473</v>
+      </c>
+      <c r="H28">
+        <v>0.01440392811729715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02598977504726659</v>
+        <v>0.01525493928106834</v>
       </c>
       <c r="C29">
-        <v>-0.0002523396298328943</v>
+        <v>-0.01469537685830792</v>
       </c>
       <c r="D29">
-        <v>-0.02184724216714364</v>
+        <v>0.01509036539985729</v>
       </c>
       <c r="E29">
-        <v>-0.01802266495255322</v>
+        <v>-0.0133403757218898</v>
       </c>
       <c r="F29">
-        <v>0.04432210769107013</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.001548067453494659</v>
+      </c>
+      <c r="G29">
+        <v>-0.03605633854451475</v>
+      </c>
+      <c r="H29">
+        <v>-0.005786095164050733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04891064231339132</v>
+        <v>0.03218046596404183</v>
       </c>
       <c r="C30">
-        <v>0.07447960640673977</v>
+        <v>-0.06602215796486359</v>
       </c>
       <c r="D30">
-        <v>-0.05830494980154567</v>
+        <v>0.06957584307674416</v>
       </c>
       <c r="E30">
-        <v>-0.03961692371273811</v>
+        <v>0.03167601465135098</v>
       </c>
       <c r="F30">
-        <v>0.08853687809686268</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.0269599086554764</v>
+      </c>
+      <c r="G30">
+        <v>-0.05900814920115709</v>
+      </c>
+      <c r="H30">
+        <v>-0.07303027549697112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05138681166279815</v>
+        <v>0.04308973864657415</v>
       </c>
       <c r="C31">
-        <v>0.03566864297227673</v>
+        <v>-0.02849554854446793</v>
       </c>
       <c r="D31">
-        <v>-0.01876516083408896</v>
+        <v>0.01677380828897603</v>
       </c>
       <c r="E31">
-        <v>-0.01710259682928814</v>
+        <v>0.0009273092564310307</v>
       </c>
       <c r="F31">
-        <v>0.0313634011314007</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.004147641400412891</v>
+      </c>
+      <c r="G31">
+        <v>-0.01577512025758921</v>
+      </c>
+      <c r="H31">
+        <v>-0.00519018918776287</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02471676606151085</v>
+        <v>0.008540655987212199</v>
       </c>
       <c r="C32">
-        <v>-0.01338515786077179</v>
+        <v>-0.01878872769045988</v>
       </c>
       <c r="D32">
-        <v>-0.05403326670361143</v>
+        <v>0.0005673631682440335</v>
       </c>
       <c r="E32">
-        <v>-0.03840787166473551</v>
+        <v>-0.03063706999585411</v>
       </c>
       <c r="F32">
-        <v>0.04384907473866193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0264933912812704</v>
+      </c>
+      <c r="G32">
+        <v>-0.04351052409581656</v>
+      </c>
+      <c r="H32">
+        <v>-0.04840818607102384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03190734359041487</v>
+        <v>0.02023775854511249</v>
       </c>
       <c r="C33">
-        <v>0.04412276143616205</v>
+        <v>-0.0352911624352519</v>
       </c>
       <c r="D33">
-        <v>-0.05184076691482931</v>
+        <v>0.03585001832590688</v>
       </c>
       <c r="E33">
-        <v>-0.003128632800532209</v>
+        <v>0.01982958996196073</v>
       </c>
       <c r="F33">
-        <v>0.06231506281798871</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01274018527502586</v>
+      </c>
+      <c r="G33">
+        <v>-0.03625263028680443</v>
+      </c>
+      <c r="H33">
+        <v>-0.04959132713604966</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03656823792383605</v>
+        <v>0.02469372522667809</v>
       </c>
       <c r="C34">
-        <v>0.01653586022357901</v>
+        <v>-0.04778527544617016</v>
       </c>
       <c r="D34">
-        <v>-0.04240586735901004</v>
+        <v>0.02030058740033809</v>
       </c>
       <c r="E34">
-        <v>-0.02903734636580066</v>
+        <v>-0.01367642269141188</v>
       </c>
       <c r="F34">
-        <v>0.02605422152190134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01550855243477006</v>
+      </c>
+      <c r="G34">
+        <v>-0.008024927110531495</v>
+      </c>
+      <c r="H34">
+        <v>-0.03541014567315086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01796723781763993</v>
+        <v>0.01514047426169022</v>
       </c>
       <c r="C36">
-        <v>-0.0003120139775419758</v>
+        <v>-0.0006894651811114913</v>
       </c>
       <c r="D36">
-        <v>-0.01253433877397047</v>
+        <v>0.01056850135388965</v>
       </c>
       <c r="E36">
-        <v>-0.00895316564404024</v>
+        <v>-0.008160740492874446</v>
       </c>
       <c r="F36">
-        <v>0.02913871436114341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.004506977082589899</v>
+      </c>
+      <c r="G36">
+        <v>-0.01558774930271222</v>
+      </c>
+      <c r="H36">
+        <v>-0.01587114165520266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.00840343611389309</v>
+        <v>0.02368122736205966</v>
       </c>
       <c r="C38">
-        <v>0.005141325566954225</v>
+        <v>-0.02161796909507606</v>
       </c>
       <c r="D38">
-        <v>-0.002661423574637392</v>
+        <v>0.0008237344219299842</v>
       </c>
       <c r="E38">
-        <v>0.01664482167581182</v>
+        <v>-0.0006951872257628404</v>
       </c>
       <c r="F38">
-        <v>0.04567276109648389</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.002134071843116943</v>
+      </c>
+      <c r="G38">
+        <v>-0.02195428355609862</v>
+      </c>
+      <c r="H38">
+        <v>-0.03193850065182142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02961424695512887</v>
+        <v>0.006303262044618973</v>
       </c>
       <c r="C39">
-        <v>0.02260432627918739</v>
+        <v>-0.06822507838522764</v>
       </c>
       <c r="D39">
-        <v>-0.05780328361419795</v>
+        <v>0.05667881401931232</v>
       </c>
       <c r="E39">
-        <v>-0.02207586719621219</v>
+        <v>0.006784732153023751</v>
       </c>
       <c r="F39">
-        <v>0.04640575877588235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.009381795666676105</v>
+      </c>
+      <c r="G39">
+        <v>-0.02883753869965087</v>
+      </c>
+      <c r="H39">
+        <v>-0.07916163577006786</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01890096595216264</v>
+        <v>0.02556968451338297</v>
       </c>
       <c r="C40">
-        <v>0.05116973474801682</v>
+        <v>-0.02494707626454087</v>
       </c>
       <c r="D40">
-        <v>-0.02324265540484367</v>
+        <v>0.02460608415479061</v>
       </c>
       <c r="E40">
-        <v>-0.02968690327609478</v>
+        <v>0.02388806635998474</v>
       </c>
       <c r="F40">
-        <v>0.03998410469389974</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02732512498326003</v>
+      </c>
+      <c r="G40">
+        <v>-0.0159692988061762</v>
+      </c>
+      <c r="H40">
+        <v>-0.05673158732703524</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.005396647683372885</v>
+        <v>0.01243374849949505</v>
       </c>
       <c r="C41">
-        <v>-0.002294635107179963</v>
+        <v>0.008963393786434916</v>
       </c>
       <c r="D41">
-        <v>-0.005235155903555134</v>
+        <v>-0.004283583543738268</v>
       </c>
       <c r="E41">
-        <v>0.01210102315030409</v>
+        <v>-0.004737384862342801</v>
       </c>
       <c r="F41">
-        <v>0.003855250683710104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.007038037539235898</v>
+      </c>
+      <c r="G41">
+        <v>0.00380522536052974</v>
+      </c>
+      <c r="H41">
+        <v>0.004733061650107927</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2245703532404268</v>
+        <v>0.1029661899607501</v>
       </c>
       <c r="C42">
-        <v>0.2256774155457047</v>
+        <v>-0.1108303497556755</v>
       </c>
       <c r="D42">
-        <v>-0.2399147519669079</v>
+        <v>0.2209962906885354</v>
       </c>
       <c r="E42">
-        <v>0.8546748399914832</v>
+        <v>0.2310848914138628</v>
       </c>
       <c r="F42">
-        <v>-0.2558740780082964</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.7979380157756676</v>
+      </c>
+      <c r="G42">
+        <v>0.4657471397446022</v>
+      </c>
+      <c r="H42">
+        <v>-0.0387268887708969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.005613296706036272</v>
+        <v>0.01366396642259834</v>
       </c>
       <c r="C43">
-        <v>0.003732266518079306</v>
+        <v>0.008164783988163142</v>
       </c>
       <c r="D43">
-        <v>-0.01084012648537852</v>
+        <v>-0.0028143019469499</v>
       </c>
       <c r="E43">
-        <v>0.003828008762731485</v>
+        <v>7.359688398620772e-05</v>
       </c>
       <c r="F43">
-        <v>0.02376373069871902</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.007594555033842124</v>
+      </c>
+      <c r="G43">
+        <v>0.0008111604069444045</v>
+      </c>
+      <c r="H43">
+        <v>-0.003977231968207849</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.02573952375842274</v>
+        <v>0.01163425183693582</v>
       </c>
       <c r="C44">
-        <v>-0.00292261041709088</v>
+        <v>-0.03289945581506135</v>
       </c>
       <c r="D44">
-        <v>-0.03209951933300294</v>
+        <v>0.02559714242481387</v>
       </c>
       <c r="E44">
-        <v>-0.001076308973806353</v>
+        <v>-0.01402838542308357</v>
       </c>
       <c r="F44">
-        <v>0.093701698116714</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.01490437379880102</v>
+      </c>
+      <c r="G44">
+        <v>-0.03442238433901385</v>
+      </c>
+      <c r="H44">
+        <v>-0.05889230657398202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02051482980558868</v>
+        <v>0.005612555652826452</v>
       </c>
       <c r="C46">
-        <v>0.01080552273967611</v>
+        <v>-0.007131048451967521</v>
       </c>
       <c r="D46">
-        <v>-0.05649918106927053</v>
+        <v>0.01675766963162505</v>
       </c>
       <c r="E46">
-        <v>-0.02259169504796509</v>
+        <v>-0.001312698229591042</v>
       </c>
       <c r="F46">
-        <v>0.059758906292604</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.007047720479468932</v>
+      </c>
+      <c r="G46">
+        <v>-0.03747242975247713</v>
+      </c>
+      <c r="H46">
+        <v>-0.008226494042090214</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0788479768534705</v>
+        <v>0.05852141573206199</v>
       </c>
       <c r="C47">
-        <v>0.05079316668416915</v>
+        <v>-0.06101513553751431</v>
       </c>
       <c r="D47">
-        <v>-0.01132760796709508</v>
+        <v>0.02711220792135391</v>
       </c>
       <c r="E47">
-        <v>-0.02631459400563723</v>
+        <v>-0.00607612335521414</v>
       </c>
       <c r="F47">
-        <v>0.004802721414779671</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.006441332544272576</v>
+      </c>
+      <c r="G47">
+        <v>0.002938787055318971</v>
+      </c>
+      <c r="H47">
+        <v>0.0313998942393945</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01761848771434296</v>
+        <v>0.01535446040912817</v>
       </c>
       <c r="C48">
-        <v>0.01067497295228617</v>
+        <v>-0.01411863642810693</v>
       </c>
       <c r="D48">
-        <v>-0.02091062144482654</v>
+        <v>0.008353158722057663</v>
       </c>
       <c r="E48">
-        <v>-0.008801844019040876</v>
+        <v>-0.001236513074375692</v>
       </c>
       <c r="F48">
-        <v>0.03485406114944072</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0007157214165874219</v>
+      </c>
+      <c r="G48">
+        <v>-0.01731211166758084</v>
+      </c>
+      <c r="H48">
+        <v>-0.01950221484004482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08353718014776702</v>
+        <v>0.06245993804420141</v>
       </c>
       <c r="C50">
-        <v>0.03396584929787853</v>
+        <v>-0.05739814412819334</v>
       </c>
       <c r="D50">
-        <v>-0.03315523214302981</v>
+        <v>0.02641800966294805</v>
       </c>
       <c r="E50">
-        <v>-0.01816573333281579</v>
+        <v>-0.01748675611640167</v>
       </c>
       <c r="F50">
-        <v>0.01756231121344048</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.001285593488609311</v>
+      </c>
+      <c r="G50">
+        <v>-0.005390127112189558</v>
+      </c>
+      <c r="H50">
+        <v>0.01644123979562496</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02098383021528416</v>
+        <v>0.01410278776114115</v>
       </c>
       <c r="C51">
-        <v>0.006090644357634277</v>
+        <v>-0.008402289241025634</v>
       </c>
       <c r="D51">
-        <v>0.001215394767790239</v>
+        <v>0.01112550671871468</v>
       </c>
       <c r="E51">
-        <v>-0.004541075944860071</v>
+        <v>-0.007799495461549177</v>
       </c>
       <c r="F51">
-        <v>0.08393446272938575</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.005438237657918275</v>
+      </c>
+      <c r="G51">
+        <v>-0.03064582562143758</v>
+      </c>
+      <c r="H51">
+        <v>-0.04228943599869774</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08608355878850722</v>
+        <v>0.07412816393121312</v>
       </c>
       <c r="C53">
-        <v>0.05356252507658252</v>
+        <v>-0.09139629269903919</v>
       </c>
       <c r="D53">
-        <v>-0.03871412109236133</v>
+        <v>0.04622319958015633</v>
       </c>
       <c r="E53">
-        <v>-0.03905320352685707</v>
+        <v>-0.01032825706715117</v>
       </c>
       <c r="F53">
-        <v>-0.03354444665194625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02661023604049164</v>
+      </c>
+      <c r="G53">
+        <v>0.02243654559188829</v>
+      </c>
+      <c r="H53">
+        <v>0.02845202775856112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02575547165720437</v>
+        <v>0.02361229523753985</v>
       </c>
       <c r="C54">
-        <v>0.001477389311266281</v>
+        <v>-0.002543265701082304</v>
       </c>
       <c r="D54">
-        <v>0.002913381680369699</v>
+        <v>-0.006572192214848699</v>
       </c>
       <c r="E54">
-        <v>-0.008023413071779421</v>
+        <v>-0.006967727909049664</v>
       </c>
       <c r="F54">
-        <v>0.02922105936745506</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.01234098650072262</v>
+      </c>
+      <c r="G54">
+        <v>-0.03568250542401791</v>
+      </c>
+      <c r="H54">
+        <v>0.0009287153690519664</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08406094299553256</v>
+        <v>0.05609151588370213</v>
       </c>
       <c r="C55">
-        <v>0.0472599021534808</v>
+        <v>-0.08163087521110417</v>
       </c>
       <c r="D55">
-        <v>-0.0417534186898852</v>
+        <v>0.04261173822221603</v>
       </c>
       <c r="E55">
-        <v>-0.03060245391785316</v>
+        <v>-0.01098994846661122</v>
       </c>
       <c r="F55">
-        <v>-0.03661728874266636</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01293944527225651</v>
+      </c>
+      <c r="G55">
+        <v>0.006826534209509782</v>
+      </c>
+      <c r="H55">
+        <v>0.03725716078125681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1217292183881332</v>
+        <v>0.09761367611268794</v>
       </c>
       <c r="C56">
-        <v>0.08115736167863848</v>
+        <v>-0.1196258591255429</v>
       </c>
       <c r="D56">
-        <v>-0.02209394167421844</v>
+        <v>0.05348960310907537</v>
       </c>
       <c r="E56">
-        <v>-0.08295775360610208</v>
+        <v>-0.01148411697578358</v>
       </c>
       <c r="F56">
-        <v>-0.06631375439467495</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05368994487309033</v>
+      </c>
+      <c r="G56">
+        <v>0.04257607080883083</v>
+      </c>
+      <c r="H56">
+        <v>0.06889808260842885</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03810812506444307</v>
+        <v>0.02623750914621591</v>
       </c>
       <c r="C57">
-        <v>0.02991194236614961</v>
+        <v>-0.0162199062169541</v>
       </c>
       <c r="D57">
-        <v>-0.02139539076401085</v>
+        <v>0.03615049089825925</v>
       </c>
       <c r="E57">
-        <v>0.01613754313543762</v>
+        <v>0.007477732593108672</v>
       </c>
       <c r="F57">
-        <v>0.05503329402699553</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.01711498246417109</v>
+      </c>
+      <c r="G57">
+        <v>-0.06318704547616778</v>
+      </c>
+      <c r="H57">
+        <v>-0.05389408378986286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1464732747705799</v>
+        <v>0.09683687621313573</v>
       </c>
       <c r="C58">
-        <v>0.2180321675008347</v>
+        <v>-0.1577203244658223</v>
       </c>
       <c r="D58">
-        <v>-0.2200463845047474</v>
+        <v>0.1034372920096995</v>
       </c>
       <c r="E58">
-        <v>-0.02144034429302355</v>
+        <v>0.2898284087814055</v>
       </c>
       <c r="F58">
-        <v>0.5313212858294425</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3181443870817822</v>
+      </c>
+      <c r="G58">
+        <v>-0.7741473097436998</v>
+      </c>
+      <c r="H58">
+        <v>0.2940170545521564</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05333719367965368</v>
+        <v>0.2042226691082636</v>
       </c>
       <c r="C59">
-        <v>0.03115394183106197</v>
+        <v>0.1295596453447717</v>
       </c>
       <c r="D59">
-        <v>0.1844324747462329</v>
+        <v>-0.1257502196811585</v>
       </c>
       <c r="E59">
-        <v>0.03583728627508337</v>
+        <v>0.007871101869563859</v>
       </c>
       <c r="F59">
-        <v>0.08555374979525975</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.003592644127270272</v>
+      </c>
+      <c r="G59">
+        <v>-0.01449513441311167</v>
+      </c>
+      <c r="H59">
+        <v>-0.01675766311914122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.130080497882138</v>
+        <v>0.2146238322240777</v>
       </c>
       <c r="C60">
-        <v>0.1201557378878746</v>
+        <v>-0.05750176920888461</v>
       </c>
       <c r="D60">
-        <v>0.0008656100333075984</v>
+        <v>0.02211906404604003</v>
       </c>
       <c r="E60">
-        <v>0.009447561726442084</v>
+        <v>0.05531754564202122</v>
       </c>
       <c r="F60">
-        <v>0.1659215481492348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.08438063531145064</v>
+      </c>
+      <c r="G60">
+        <v>-0.02708173889089035</v>
+      </c>
+      <c r="H60">
+        <v>-0.3912742849287181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02095097866828444</v>
+        <v>0.01319486958533804</v>
       </c>
       <c r="C61">
-        <v>0.01087260876103996</v>
+        <v>-0.04936869799630753</v>
       </c>
       <c r="D61">
-        <v>-0.0432245451453559</v>
+        <v>0.0349652290417428</v>
       </c>
       <c r="E61">
-        <v>-0.01188257920974848</v>
+        <v>-0.003502652549177749</v>
       </c>
       <c r="F61">
-        <v>0.0173007039100089</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0136564962844514</v>
+      </c>
+      <c r="G61">
+        <v>-0.02189141165331517</v>
+      </c>
+      <c r="H61">
+        <v>-0.0563972844807805</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01291840895254021</v>
+        <v>0.007508218814329825</v>
       </c>
       <c r="C63">
-        <v>0.002065730783655243</v>
+        <v>-0.01474058253952525</v>
       </c>
       <c r="D63">
-        <v>-0.02309017743656662</v>
+        <v>0.01782334692211799</v>
       </c>
       <c r="E63">
-        <v>0.005307329628829878</v>
+        <v>-0.009267793011206608</v>
       </c>
       <c r="F63">
-        <v>0.007073428143354658</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.000277153379237937</v>
+      </c>
+      <c r="G63">
+        <v>-0.01319796565337306</v>
+      </c>
+      <c r="H63">
+        <v>-0.01398933865138749</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03673927107641422</v>
+        <v>0.03655827971851888</v>
       </c>
       <c r="C64">
-        <v>0.005460720274482413</v>
+        <v>-0.03589180111771321</v>
       </c>
       <c r="D64">
-        <v>-0.03143751824278865</v>
+        <v>0.02393486386958832</v>
       </c>
       <c r="E64">
-        <v>-0.02175127014976605</v>
+        <v>-0.01524568510901412</v>
       </c>
       <c r="F64">
-        <v>0.0148050698904262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.005957736517761439</v>
+      </c>
+      <c r="G64">
+        <v>0.01178808290282659</v>
+      </c>
+      <c r="H64">
+        <v>-0.04646200616664788</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03704592440997153</v>
+        <v>0.04238597683739635</v>
       </c>
       <c r="C65">
-        <v>0.01667213687370946</v>
+        <v>-0.05882031078299043</v>
       </c>
       <c r="D65">
-        <v>-0.03862750146912201</v>
+        <v>0.05230368326466409</v>
       </c>
       <c r="E65">
-        <v>-0.02684277442385617</v>
+        <v>-0.007428079289677924</v>
       </c>
       <c r="F65">
-        <v>0.004351916758348979</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.04651371682343625</v>
+      </c>
+      <c r="G65">
+        <v>-0.0004886085523875802</v>
+      </c>
+      <c r="H65">
+        <v>-0.07462561855492963</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03319596044367258</v>
+        <v>0.01375078434736858</v>
       </c>
       <c r="C66">
-        <v>0.03257170958292061</v>
+        <v>-0.09031849282596568</v>
       </c>
       <c r="D66">
-        <v>-0.06275413409843424</v>
+        <v>0.06803285760267493</v>
       </c>
       <c r="E66">
-        <v>-0.04528247051212044</v>
+        <v>0.007826770247601688</v>
       </c>
       <c r="F66">
-        <v>0.03125917747878774</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03273808167895846</v>
+      </c>
+      <c r="G66">
+        <v>-0.03059395513851523</v>
+      </c>
+      <c r="H66">
+        <v>-0.08422617119323621</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01909090462149313</v>
+        <v>0.045642606846489</v>
       </c>
       <c r="C67">
-        <v>0.01636515609679918</v>
+        <v>-0.02771452205577818</v>
       </c>
       <c r="D67">
-        <v>0.008627700559789652</v>
+        <v>0.004263244137528406</v>
       </c>
       <c r="E67">
-        <v>0.007437056864538713</v>
+        <v>0.001097056896274852</v>
       </c>
       <c r="F67">
-        <v>0.02762867766747306</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01511351349654272</v>
+      </c>
+      <c r="G67">
+        <v>-0.01505578880076803</v>
+      </c>
+      <c r="H67">
+        <v>-0.03043970953744693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06762540760179275</v>
+        <v>0.2026926445810201</v>
       </c>
       <c r="C68">
-        <v>0.02749001356732434</v>
+        <v>0.1660439036807433</v>
       </c>
       <c r="D68">
-        <v>0.2102395519750137</v>
+        <v>-0.1266537003554383</v>
       </c>
       <c r="E68">
-        <v>0.05319377496053722</v>
+        <v>0.008335814144412984</v>
       </c>
       <c r="F68">
-        <v>0.07731404879254326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0504041697010259</v>
+      </c>
+      <c r="G68">
+        <v>-0.02167386101752234</v>
+      </c>
+      <c r="H68">
+        <v>0.04559212172797835</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05601829707641882</v>
+        <v>0.05584478847164559</v>
       </c>
       <c r="C69">
-        <v>0.03852091516380946</v>
+        <v>-0.05677015037066561</v>
       </c>
       <c r="D69">
-        <v>-0.01569264491514716</v>
+        <v>0.01943083817958056</v>
       </c>
       <c r="E69">
-        <v>-0.03536112203981623</v>
+        <v>-0.005473336670529651</v>
       </c>
       <c r="F69">
-        <v>0.009313284287333015</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02623915919621908</v>
+      </c>
+      <c r="G69">
+        <v>0.004903619422198138</v>
+      </c>
+      <c r="H69">
+        <v>-0.007249706437124737</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0747116946799089</v>
+        <v>0.1819560467698706</v>
       </c>
       <c r="C71">
-        <v>0.03677155707912587</v>
+        <v>0.1277132606803304</v>
       </c>
       <c r="D71">
-        <v>0.2123455936409969</v>
+        <v>-0.1069262842574497</v>
       </c>
       <c r="E71">
-        <v>0.0876161893463029</v>
+        <v>0.01262890066629954</v>
       </c>
       <c r="F71">
-        <v>0.08196445925349927</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.06147869743459567</v>
+      </c>
+      <c r="G71">
+        <v>-0.02407282360508907</v>
+      </c>
+      <c r="H71">
+        <v>0.02716151381715689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09661309807069744</v>
+        <v>0.05930067589505814</v>
       </c>
       <c r="C72">
-        <v>0.08294251294659682</v>
+        <v>-0.09856160666990471</v>
       </c>
       <c r="D72">
-        <v>-0.06585887211042005</v>
+        <v>0.04554468760909486</v>
       </c>
       <c r="E72">
-        <v>-0.09653679242582838</v>
+        <v>0.01466090560204028</v>
       </c>
       <c r="F72">
-        <v>0.06833758863871711</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06966224739547999</v>
+      </c>
+      <c r="G72">
+        <v>-0.03494886546534704</v>
+      </c>
+      <c r="H72">
+        <v>-0.09776475624535237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1663588383116359</v>
+        <v>0.2811197391266038</v>
       </c>
       <c r="C73">
-        <v>0.1926218044275317</v>
+        <v>-0.1161413302378464</v>
       </c>
       <c r="D73">
-        <v>0.02139083128779926</v>
+        <v>0.06265692249732421</v>
       </c>
       <c r="E73">
-        <v>0.04943019646091742</v>
+        <v>0.09794139077553655</v>
       </c>
       <c r="F73">
-        <v>0.1998061935047082</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.09658764829780978</v>
+      </c>
+      <c r="G73">
+        <v>-0.02808347715372459</v>
+      </c>
+      <c r="H73">
+        <v>-0.4873961142967288</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1128518529654486</v>
+        <v>0.09602169424706038</v>
       </c>
       <c r="C74">
-        <v>0.07429092168174688</v>
+        <v>-0.12197688178323</v>
       </c>
       <c r="D74">
-        <v>-0.02203651975597136</v>
+        <v>0.05591916500500611</v>
       </c>
       <c r="E74">
-        <v>-0.04665798307436614</v>
+        <v>-0.01196226808583322</v>
       </c>
       <c r="F74">
-        <v>-0.0787365679833486</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0377325971214216</v>
+      </c>
+      <c r="G74">
+        <v>0.03152000391714269</v>
+      </c>
+      <c r="H74">
+        <v>0.04135184336721061</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.196774579897746</v>
+        <v>0.200377251057385</v>
       </c>
       <c r="C75">
-        <v>0.1470605963453524</v>
+        <v>-0.2094173228589667</v>
       </c>
       <c r="D75">
-        <v>-0.01084427167135314</v>
+        <v>0.08378270644063507</v>
       </c>
       <c r="E75">
-        <v>-0.1526435715067052</v>
+        <v>-0.008970846289872398</v>
       </c>
       <c r="F75">
-        <v>-0.1278766213317543</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1053076651563018</v>
+      </c>
+      <c r="G75">
+        <v>0.07706306493387702</v>
+      </c>
+      <c r="H75">
+        <v>0.1497032278930668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2467200099110762</v>
+        <v>0.1561680235429155</v>
       </c>
       <c r="C76">
-        <v>0.1357322519485693</v>
+        <v>-0.1907166162687813</v>
       </c>
       <c r="D76">
-        <v>-0.02353515707078087</v>
+        <v>0.07837122912649985</v>
       </c>
       <c r="E76">
-        <v>-0.1781166664593391</v>
+        <v>-0.04803335748338376</v>
       </c>
       <c r="F76">
-        <v>-0.2031838239556504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.08991541817704858</v>
+      </c>
+      <c r="G76">
+        <v>0.06723491974199142</v>
+      </c>
+      <c r="H76">
+        <v>0.1291842061877379</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0891609980443621</v>
+        <v>0.04952482483249586</v>
       </c>
       <c r="C77">
-        <v>0.07176842904853521</v>
+        <v>-0.06983557988304392</v>
       </c>
       <c r="D77">
-        <v>-0.09560665825923967</v>
+        <v>0.05703006916795861</v>
       </c>
       <c r="E77">
-        <v>0.05041274040297205</v>
+        <v>0.01889016538167539</v>
       </c>
       <c r="F77">
-        <v>0.1344698537427738</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.04300022247985755</v>
+      </c>
+      <c r="G77">
+        <v>-0.05972901201837593</v>
+      </c>
+      <c r="H77">
+        <v>-0.01388745161407349</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.06177248104861634</v>
+        <v>0.02644838926403378</v>
       </c>
       <c r="C78">
-        <v>0.03427484020019196</v>
+        <v>-0.06605710869311125</v>
       </c>
       <c r="D78">
-        <v>-0.1138084517555323</v>
+        <v>0.04691720140537158</v>
       </c>
       <c r="E78">
-        <v>-0.03802831484579641</v>
+        <v>-0.004972329654273737</v>
       </c>
       <c r="F78">
-        <v>0.08111955309000853</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.007108628574130809</v>
+      </c>
+      <c r="G78">
+        <v>-0.05442533893141478</v>
+      </c>
+      <c r="H78">
+        <v>-0.09317181939729484</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.6069118530971924</v>
+        <v>0.1097050462348069</v>
       </c>
       <c r="C80">
-        <v>-0.7733733062481964</v>
+        <v>-0.09286270600377274</v>
       </c>
       <c r="D80">
-        <v>-0.07265785325052691</v>
+        <v>0.0564761208840189</v>
       </c>
       <c r="E80">
-        <v>0.04476138569428524</v>
+        <v>-0.907257308437275</v>
       </c>
       <c r="F80">
-        <v>0.04335118339659239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.3063225425323984</v>
+      </c>
+      <c r="G80">
+        <v>-0.1465489637082349</v>
+      </c>
+      <c r="H80">
+        <v>-0.03112485334405975</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1551182713487988</v>
+        <v>0.1296124064301304</v>
       </c>
       <c r="C81">
-        <v>0.09960898540905946</v>
+        <v>-0.1300709833326358</v>
       </c>
       <c r="D81">
-        <v>-0.003586109212315283</v>
+        <v>0.0522023491617748</v>
       </c>
       <c r="E81">
-        <v>-0.1158330324717153</v>
+        <v>-0.01747182482833748</v>
       </c>
       <c r="F81">
-        <v>-0.1135082862632501</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.05901548832320133</v>
+      </c>
+      <c r="G81">
+        <v>0.04709580280891684</v>
+      </c>
+      <c r="H81">
+        <v>0.08583566174376175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02947869559873717</v>
+        <v>0.02613716133340033</v>
       </c>
       <c r="C83">
-        <v>0.02627303668129756</v>
+        <v>-0.02111667603405325</v>
       </c>
       <c r="D83">
-        <v>-0.02904194595847949</v>
+        <v>0.01641463691329062</v>
       </c>
       <c r="E83">
-        <v>0.01233486452844474</v>
+        <v>0.006880047815958685</v>
       </c>
       <c r="F83">
-        <v>0.05778423756190702</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.01064134249192395</v>
+      </c>
+      <c r="G83">
+        <v>-0.038211557871198</v>
+      </c>
+      <c r="H83">
+        <v>-0.04239682047602509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2198206459073544</v>
+        <v>0.1868246984656999</v>
       </c>
       <c r="C85">
-        <v>0.1501661711828071</v>
+        <v>-0.2006225703658683</v>
       </c>
       <c r="D85">
-        <v>-0.02241010591298873</v>
+        <v>0.09549026824312293</v>
       </c>
       <c r="E85">
-        <v>-0.1416068713863773</v>
+        <v>-0.007760822593933131</v>
       </c>
       <c r="F85">
-        <v>-0.1563353184312759</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1029922609654298</v>
+      </c>
+      <c r="G85">
+        <v>0.105377845166706</v>
+      </c>
+      <c r="H85">
+        <v>0.08021855320562228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01144051522219886</v>
+        <v>0.01445507889280232</v>
       </c>
       <c r="C86">
-        <v>-0.0005181250141469464</v>
+        <v>-0.02908686116219339</v>
       </c>
       <c r="D86">
-        <v>-0.07877108153804811</v>
+        <v>0.02650059010978693</v>
       </c>
       <c r="E86">
-        <v>-0.00262089226529679</v>
+        <v>-0.006941302294303768</v>
       </c>
       <c r="F86">
-        <v>0.04959704124930114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.02189247786960036</v>
+      </c>
+      <c r="G86">
+        <v>-0.03298855186552602</v>
+      </c>
+      <c r="H86">
+        <v>-0.07739598918475306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03371329446839941</v>
+        <v>0.01258634959167838</v>
       </c>
       <c r="C87">
-        <v>0.02052123462348561</v>
+        <v>-0.03366535624695425</v>
       </c>
       <c r="D87">
-        <v>-0.04216985874447244</v>
+        <v>0.0310746896221572</v>
       </c>
       <c r="E87">
-        <v>-0.00549453301519809</v>
+        <v>0.001715989407056741</v>
       </c>
       <c r="F87">
-        <v>0.1060386443009933</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01366542297365465</v>
+      </c>
+      <c r="G87">
+        <v>-0.06956041689569764</v>
+      </c>
+      <c r="H87">
+        <v>-0.07977688006049954</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.02178796113333074</v>
+        <v>0.04226697424958546</v>
       </c>
       <c r="C88">
-        <v>-0.001473396756621107</v>
+        <v>-0.008528869060653118</v>
       </c>
       <c r="D88">
-        <v>0.00320826532015212</v>
+        <v>0.02526235163913275</v>
       </c>
       <c r="E88">
-        <v>-0.01709990264190318</v>
+        <v>-0.02128246625386619</v>
       </c>
       <c r="F88">
-        <v>-0.01839118884441264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01626361113749353</v>
+      </c>
+      <c r="G88">
+        <v>0.003207940141556895</v>
+      </c>
+      <c r="H88">
+        <v>-0.008737583874998414</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.09790330510877986</v>
+        <v>0.312886715824274</v>
       </c>
       <c r="C89">
-        <v>0.05192026128946803</v>
+        <v>0.2292856947644978</v>
       </c>
       <c r="D89">
-        <v>0.3374284717361993</v>
+        <v>-0.1898434208916034</v>
       </c>
       <c r="E89">
-        <v>0.06821969400024593</v>
+        <v>0.008802442676296941</v>
       </c>
       <c r="F89">
-        <v>0.1032805933416568</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.01652962091979656</v>
+      </c>
+      <c r="G89">
+        <v>0.02126560608775585</v>
+      </c>
+      <c r="H89">
+        <v>0.01069375630992605</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.0845877352300108</v>
+        <v>0.2600853789200275</v>
       </c>
       <c r="C90">
-        <v>0.0196641479477211</v>
+        <v>0.2123415953615529</v>
       </c>
       <c r="D90">
-        <v>0.3582732186954496</v>
+        <v>-0.1755827634130544</v>
       </c>
       <c r="E90">
-        <v>0.08683537570355662</v>
+        <v>0.001305481784956083</v>
       </c>
       <c r="F90">
-        <v>0.05535271171752957</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05551964105855096</v>
+      </c>
+      <c r="G90">
+        <v>0.00581447621318042</v>
+      </c>
+      <c r="H90">
+        <v>0.0598055496939605</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2479345374824863</v>
+        <v>0.197922395214801</v>
       </c>
       <c r="C91">
-        <v>0.189855552270166</v>
+        <v>-0.193685076685405</v>
       </c>
       <c r="D91">
-        <v>-0.01995997924983636</v>
+        <v>0.07560088170769844</v>
       </c>
       <c r="E91">
-        <v>-0.114669286141989</v>
+        <v>0.002151349162254427</v>
       </c>
       <c r="F91">
-        <v>-0.2423087301806504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08768740294135952</v>
+      </c>
+      <c r="G91">
+        <v>0.09931429192314552</v>
+      </c>
+      <c r="H91">
+        <v>0.1651250217658801</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1557472070484561</v>
+        <v>0.2800008958997249</v>
       </c>
       <c r="C92">
-        <v>0.07803717783521082</v>
+        <v>0.1044571088670484</v>
       </c>
       <c r="D92">
-        <v>0.4279105006927408</v>
+        <v>-0.1580582185585468</v>
       </c>
       <c r="E92">
-        <v>-0.05438304273697202</v>
+        <v>-0.006968524983126417</v>
       </c>
       <c r="F92">
-        <v>-0.04864362066001318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.008490170224222066</v>
+      </c>
+      <c r="G92">
+        <v>-0.0358850624036673</v>
+      </c>
+      <c r="H92">
+        <v>0.1546135430483028</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.08522114505530935</v>
+        <v>0.2915237551220569</v>
       </c>
       <c r="C93">
-        <v>0.06529306179733003</v>
+        <v>0.2047157896572973</v>
       </c>
       <c r="D93">
-        <v>0.4211137171011627</v>
+        <v>-0.1822769043896112</v>
       </c>
       <c r="E93">
-        <v>0.1263680891904411</v>
+        <v>0.03479622591989387</v>
       </c>
       <c r="F93">
-        <v>0.06169972986746657</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05157647500088728</v>
+      </c>
+      <c r="G93">
+        <v>0.01611870243301323</v>
+      </c>
+      <c r="H93">
+        <v>0.0004007279717637702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2439437796079784</v>
+        <v>0.2443180297038332</v>
       </c>
       <c r="C94">
-        <v>0.1989436205250212</v>
+        <v>-0.2127250602634273</v>
       </c>
       <c r="D94">
-        <v>-0.01390709710128527</v>
+        <v>0.09742438118251187</v>
       </c>
       <c r="E94">
-        <v>-0.229895074234412</v>
+        <v>0.007679441650905297</v>
       </c>
       <c r="F94">
-        <v>-0.1997994223363191</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2233897973758411</v>
+      </c>
+      <c r="G94">
+        <v>0.1651307994660058</v>
+      </c>
+      <c r="H94">
+        <v>0.395975177655506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.01124834855714989</v>
+        <v>0.02894043827066391</v>
       </c>
       <c r="C95">
-        <v>0.08539333721381845</v>
+        <v>-0.0854419130466368</v>
       </c>
       <c r="D95">
-        <v>-0.04195919442055358</v>
+        <v>0.04480409405684367</v>
       </c>
       <c r="E95">
-        <v>-0.0174716317947683</v>
+        <v>0.08222632156588658</v>
       </c>
       <c r="F95">
-        <v>0.0166040342843666</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.01897743316805627</v>
+      </c>
+      <c r="G95">
+        <v>-0.0367648597454372</v>
+      </c>
+      <c r="H95">
+        <v>-0.03482814658106773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1321617328394451</v>
+        <v>0.1856246040722849</v>
       </c>
       <c r="C98">
-        <v>0.1225900271632981</v>
+        <v>-0.07068376433516275</v>
       </c>
       <c r="D98">
-        <v>0.01964702419839483</v>
+        <v>0.002709380939318686</v>
       </c>
       <c r="E98">
-        <v>0.04121532017495309</v>
+        <v>0.06571427128491598</v>
       </c>
       <c r="F98">
-        <v>0.1692342737060972</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01002761009633796</v>
+      </c>
+      <c r="G98">
+        <v>-0.06642302758638152</v>
+      </c>
+      <c r="H98">
+        <v>-0.3259461014693638</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.01250797584091979</v>
+        <v>0.0092414345921725</v>
       </c>
       <c r="C101">
-        <v>-0.0008129163089995574</v>
+        <v>-0.01449077770402289</v>
       </c>
       <c r="D101">
-        <v>-0.06144719160712599</v>
+        <v>0.01610123150752997</v>
       </c>
       <c r="E101">
-        <v>-0.0294851164327365</v>
+        <v>0.0007940539641910871</v>
       </c>
       <c r="F101">
-        <v>0.16805178578961</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.01571120329934204</v>
+      </c>
+      <c r="G101">
+        <v>-0.09372638061061009</v>
+      </c>
+      <c r="H101">
+        <v>0.009593499907206015</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09785341758702538</v>
+        <v>0.09368979018123616</v>
       </c>
       <c r="C102">
-        <v>0.06276584167045177</v>
+        <v>-0.09000622754164112</v>
       </c>
       <c r="D102">
-        <v>-0.01405244460372128</v>
+        <v>0.0493683563628506</v>
       </c>
       <c r="E102">
-        <v>-0.07120708303267774</v>
+        <v>-0.008333514980518422</v>
       </c>
       <c r="F102">
-        <v>-0.09412307817038419</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.05598739929885165</v>
+      </c>
+      <c r="G102">
+        <v>0.04858403947359077</v>
+      </c>
+      <c r="H102">
+        <v>0.0616975783217566</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04365466014013367</v>
+        <v>0.01205618355928389</v>
       </c>
       <c r="C103">
-        <v>0.0142547416687925</v>
+        <v>-0.01669980842968166</v>
       </c>
       <c r="D103">
-        <v>-0.0214839021277163</v>
+        <v>0.009213606198283614</v>
       </c>
       <c r="E103">
-        <v>-0.03797472686860393</v>
+        <v>-0.01291235566295895</v>
       </c>
       <c r="F103">
-        <v>-0.01108631380676066</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.002034528299817399</v>
+      </c>
+      <c r="G103">
+        <v>-0.005771613846358548</v>
+      </c>
+      <c r="H103">
+        <v>0.01612809612073655</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1208744123547773</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.5708821625862384</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.7942539790928438</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.03019650898869496</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1220258655039255</v>
+      </c>
+      <c r="G104">
+        <v>-0.03155451868027522</v>
+      </c>
+      <c r="H104">
+        <v>0.05303202135390201</v>
       </c>
     </row>
   </sheetData>
